--- a/biology/Botanique/Epidendroideae/Epidendroideae.xlsx
+++ b/biology/Botanique/Epidendroideae/Epidendroideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epidendroideae forment une sous-famille de la famille des orchidées (Orchidaceae).
 C'est la plus grande sous-famille d'orchidées, regroupant à elle seule plus d'espèces que toutes les autres sous-familles réunies. On compte plus de 15 000 espèces réparties en 15 tribus (NCBI) et 576 genres.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,13 +553,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Depuis 1998, la classification phylogénétique a remplacé la classification traditionnelle en botanique (APG) en se basant sur l'analyse de deux gènes chloroplastiques ainsi qu'un gène nucléaire de ribosome et non plus sur les ressemblances morphologiques et physiologiques les plus évidentes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1998, la classification phylogénétique a remplacé la classification traditionnelle en botanique (APG) en se basant sur l'analyse de deux gènes chloroplastiques ainsi qu'un gène nucléaire de ribosome et non plus sur les ressemblances morphologiques et physiologiques les plus évidentes.
 L'approche scientifique est fondamentalement différente dans la mesure où il s'agit de déterminer la parenté génétique de chaque espèce mettant en évidence  que certaines plantes que l'on croyait proches étaient en fait très éloignées. À l'inverse, deux plantes d'un même genre peuvent être très différentes morphologiquement en fonction du milieu (climat, insectes pollinisateurs) auquel elles ont eu à s'adapter. 
-Une première classification fut proposée en 1826 par John Lindley intitulée Orchidearum sceletos[2] faisant mention de 8 Tribus mais ce n'est qu'en 1993 que  Robert Louis Dressler fit paraître une nouvelle classification strictement basée sur la phylogénie[3]. Il y a tellement d'espèces à étudier que la  classification actuelle évolue assez fréquemment au gré des recherches scientifiques.
-Actuellement, la classification APG III fait office de référence[4].
-Liste des tribus d'après la classification APG III (2009)
+Une première classification fut proposée en 1826 par John Lindley intitulée Orchidearum sceletos faisant mention de 8 Tribus mais ce n'est qu'en 1993 que  Robert Louis Dressler fit paraître une nouvelle classification strictement basée sur la phylogénie. Il y a tellement d'espèces à étudier que la  classification actuelle évolue assez fréquemment au gré des recherches scientifiques.
+Actuellement, la classification APG III fait office de référence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Epidendroideae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epidendroideae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des tribus d'après la classification APG III (2009)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Arethuseae Lindl. 1826.
 Calypsoae Dressler 1979.
 Collabieae Pfitzer 1887.
@@ -566,9 +618,43 @@
 La tribu Collabieae considérée comme une sous-tribu dans les classifications précédentes.
 La tribu Maxillarieae qui disparait, les genres étant rattachés pour la plupart à la tribu Cymbidieae
 La tribu Sobralieae, également une sous-tribu auparavant.
-Une toute nouvelle tribu, les Xerorchideae.
-Liste des tribus d'après la classification APG II (2003)
-Selon le NCBI[5]
+Une toute nouvelle tribu, les Xerorchideae.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Epidendroideae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epidendroideae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des tribus d'après la classification APG II (2003)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le NCBI
 Arethuseae Lindl. 1826.
 sous-tribu Arethusinae
 sous-tribu Coelogyninae
@@ -655,19 +741,88 @@
 Epidendroideae incertae sedis
 sous-tribu Agrostophyllinae
 sous-tribu Collabiinae
-Liste des tribus d'après la classification APG (1998)
-Selon le NCBI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Epidendroideae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epidendroideae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des tribus d'après la classification APG (1998)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon le NCBI
 Coilochilideae   M.A.Clem.  &amp;   D.L.Jones 2002.
-Selon le GRIN[6]
+Selon le GRIN
 Arethuseae
 Calypsoeae
 Collabieae
 Dendrobieae
 Epidendreae
 Malaxideae
-Podochileae
-Liste des tribus d'après John Lindley (1826).
-Tribu N°1 : Neottieae
+Podochileae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Epidendroideae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epidendroideae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des tribus d'après John Lindley (1826).</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tribu N°1 : Neottieae
 Tribu N°2 : Arethuseae
 Tribu N°3 : Gastrodieae
 Tribu N°4 : Ophrydeae
